--- a/exercises/Lecture 4 - Non linear programming/ch4_P4toys_solution.xlsx
+++ b/exercises/Lecture 4 - Non linear programming/ch4_P4toys_solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT\Documents\JAMK\JAMK Courses\BAPM\Excel_Files_with_Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\exercises\Lecture 4 - Non linear programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BCAD3-8B14-46F1-AE07-7CA73984E5B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9285D5-EBD4-49E3-82CC-9240CA6C2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14220" windowHeight="15850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3105" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="8" r:id="rId1"/>
@@ -59,7 +59,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -458,11 +463,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -497,16 +501,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,9 +532,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,9 +572,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,26 +607,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,26 +642,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,202 +822,202 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
         <v>3623.7251095205556</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
         <v>7.2474502190411112</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>57.97960175232889</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1060,14 +1030,14 @@
         <v>14.02039824767111</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>57.97960175232889</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1080,14 +1050,14 @@
         <v>22.02039824767111</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>28.989800876164445</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1100,14 +1070,14 @@
         <v>31.010199123835555</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>5000.0007373578028</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1131,60 +1101,60 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1168,7 @@
         <v>-214.43425716415754</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1212,36 +1182,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1269,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1283,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1308,151 +1278,151 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.21875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.1796875" customWidth="1"/>
-    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.21875" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.21875" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>3623.7251095205556</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>3623.7251095205556</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
         <v>3623.7251095205556</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>7.2474502190411112</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
         <v>7.2474502020835843</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>3623.7251010417922</v>
       </c>
     </row>
@@ -1466,154 +1436,154 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>72</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>SUMPRODUCT(B3:C3, $B$8:$C$8)</f>
         <v>57.97960175232889</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>SUMPRODUCT(B4:C4, $B$8:$C$8)</f>
         <v>57.97960175232889</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>60</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>SUMPRODUCT(B5:C5, $B$8:$C$8)</f>
         <v>28.989800876164445</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
         <f>700*B8+ 40*B8*B8 + 1000</f>
         <v>1000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <f>200*C8+ 20*C8*C8 + 1500</f>
         <v>4000.0007373578032</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>5000</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f>B6+C6</f>
         <v>5000.0007373578028</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>500</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>7.2474502190411112</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f>A8*(B8+C8)</f>
         <v>3623.7251095205556</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
